--- a/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>WDLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,97 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>39782</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>39691</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -761,13 +764,13 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,11 +790,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
@@ -811,36 +817,39 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
       <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -849,10 +858,10 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -861,10 +870,13 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,8 +1014,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1007,14 +1026,17 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,17 +1070,20 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1500</v>
       </c>
       <c r="F17" s="3">
         <v>1500</v>
       </c>
       <c r="G17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,13 +1210,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>500</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1257,8 +1293,8 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
+      <c r="N21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
@@ -1266,25 +1302,28 @@
       <c r="P21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1292,11 +1331,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,13 +1772,16 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>39782</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>39691</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1979,40 +2065,43 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,13 +2144,16 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2078,29 +2170,32 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2135,25 +2230,28 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2166,34 +2264,37 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2202,37 +2303,40 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2269,14 +2373,17 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2311,16 +2418,19 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,13 +2661,16 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -2554,37 +2679,40 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,34 +2748,35 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2655,28 +2785,31 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2689,8 +2822,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2699,21 +2832,24 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2724,8 +2860,8 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -2733,8 +2869,8 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2743,28 +2879,31 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
@@ -2774,11 +2913,11 @@
       <c r="I60" s="3">
         <v>0</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -2787,21 +2926,24 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2816,54 +2958,57 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>2000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,20 +3169,23 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
@@ -3036,31 +3193,34 @@
         <v>0</v>
       </c>
       <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-26100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-23100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-7000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>200</v>
       </c>
       <c r="H76" s="3">
         <v>200</v>
       </c>
       <c r="I76" s="3">
+        <v>200</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>39782</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>39691</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3670,10 +3868,13 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4112,14 +4341,14 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,29 +4672,29 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>WDLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,138 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>39782</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>39691</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>400</v>
+      </c>
+      <c r="S8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,14 +807,14 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -820,63 +834,75 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,11 +1057,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1029,37 +1069,43 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1073,8 +1119,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1800</v>
       </c>
       <c r="L17" s="3">
         <v>1000</v>
       </c>
       <c r="M17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1700</v>
       </c>
       <c r="L18" s="3">
         <v>-900</v>
       </c>
       <c r="M18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,16 +1277,18 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1296,52 +1370,58 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,16 +1909,22 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1822,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>39782</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>39691</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2068,40 +2242,46 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2156,10 +2342,10 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2173,29 +2359,35 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2233,16 +2425,22 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2250,14 +2448,14 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2267,8 +2465,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2276,67 +2474,79 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2376,14 +2586,20 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2421,16 +2637,22 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,102 +3009,116 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2852,10 +3126,10 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2863,8 +3137,8 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -2872,78 +3146,90 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
+      <c r="M60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2961,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2973,19 +3259,25 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3010,11 +3302,11 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,34 +3482,40 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -3207,20 +3523,26 @@
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-31600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-30600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-29200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-27700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-26100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-25700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>-23100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-7000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3980,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3623,46 +3995,52 @@
         <v>-400</v>
       </c>
       <c r="E76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>39782</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>39691</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3871,10 +4269,16 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4344,17 +4804,17 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>700</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M100" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4675,32 +5179,32 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>WDLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>39782</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>39691</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,25 +758,25 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -781,13 +785,13 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>400</v>
       </c>
       <c r="R8" s="3">
         <v>400</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,11 +820,11 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -840,16 +847,19 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
       </c>
       <c r="S9" s="3">
+        <v>300</v>
+      </c>
+      <c r="T9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -860,25 +870,25 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -887,10 +897,10 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -899,10 +909,13 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1125,17 +1148,20 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1500</v>
       </c>
       <c r="I17" s="3">
         <v>1500</v>
       </c>
       <c r="J17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>600</v>
       </c>
       <c r="S17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,11 +1322,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1376,8 +1413,8 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,23 +1436,23 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1420,11 +1460,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-200</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,11 +1994,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>39782</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>39691</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2248,40 +2335,43 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,13 +2423,16 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2348,7 +2441,7 @@
         <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2365,29 +2458,32 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2431,16 +2527,19 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2454,11 +2553,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2471,29 +2570,32 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,13 +2603,13 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2516,37 +2618,40 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2592,14 +2697,17 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2643,16 +2751,19 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,13 +3051,13 @@
         <v>400</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -2940,37 +3066,40 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,7 +3151,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3029,25 +3160,25 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3056,42 +3187,45 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3099,8 +3233,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3109,16 +3243,19 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3132,7 +3269,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3140,8 +3277,8 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -3152,8 +3289,8 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3162,16 +3299,19 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,20 +3319,20 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
@@ -3202,11 +3342,11 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0</v>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -3215,16 +3355,19 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3253,36 +3396,39 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>2000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -3308,8 +3454,8 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,20 +3655,20 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
@@ -3518,31 +3676,34 @@
         <v>0</v>
       </c>
       <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,52 +3957,55 @@
         <v>-31900</v>
       </c>
       <c r="E72" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-31800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-27700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-26100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-23100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-7000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>200</v>
       </c>
       <c r="K76" s="3">
         <v>200</v>
       </c>
       <c r="L76" s="3">
+        <v>200</v>
+      </c>
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>39782</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>39691</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4275,10 +4474,13 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4810,14 +5040,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5185,29 +5437,29 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>WDLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>39782</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>39691</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,25 +764,25 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -788,13 +791,13 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>400</v>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -823,11 +829,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
@@ -850,16 +856,19 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>300</v>
       </c>
       <c r="T9" s="3">
+        <v>300</v>
+      </c>
+      <c r="U9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -873,25 +882,25 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -900,10 +909,10 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
@@ -912,10 +921,13 @@
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1086,8 +1105,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1098,14 +1117,17 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1155,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1151,17 +1173,20 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1500</v>
       </c>
       <c r="J17" s="3">
         <v>1500</v>
       </c>
       <c r="K17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L17" s="3">
         <v>4900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>600</v>
       </c>
       <c r="T17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,23 +1345,24 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1416,8 +1452,8 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,23 +1478,23 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1463,11 +1502,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,22 +2051,25 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2041,64 +2110,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>39782</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>39691</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2338,40 +2424,43 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,7 +2527,7 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
@@ -2444,7 +2536,7 @@
         <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2461,29 +2553,32 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2530,16 +2625,19 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>100</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2556,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2573,29 +2671,32 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2606,13 +2707,13 @@
         <v>400</v>
       </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2621,37 +2722,40 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2700,14 +2804,17 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2754,16 +2861,19 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3054,13 +3179,13 @@
         <v>400</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -3069,37 +3194,40 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3">
+        <v>100</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,19 +3271,20 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>100</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3163,25 +3293,25 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3190,45 +3320,48 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3236,8 +3369,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3246,21 +3379,24 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3272,7 +3408,7 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -3280,8 +3416,8 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
@@ -3292,8 +3428,8 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3302,40 +3438,43 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>800</v>
       </c>
       <c r="F60" s="3">
+        <v>800</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
@@ -3345,11 +3484,11 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0</v>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -3358,21 +3497,24 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3399,39 +3541,42 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>2000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
@@ -3457,8 +3602,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,32 +3800,35 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>800</v>
       </c>
       <c r="F66" s="3">
+        <v>800</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
@@ -3679,31 +3836,34 @@
         <v>0</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3">
+        <v>100</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-31900</v>
+        <v>-31800</v>
       </c>
       <c r="E72" s="3">
         <v>-31900</v>
       </c>
       <c r="F72" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-31800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-26100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>-23100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-7000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
-        <v>100</v>
-      </c>
       <c r="K76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L76" s="3">
         <v>200</v>
       </c>
       <c r="M76" s="3">
+        <v>200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
-        <v>100</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3">
+        <v>100</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>39782</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>39691</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4477,10 +4675,13 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5043,14 +5272,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5440,28 +5691,28 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>WDLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,100 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>39782</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>39691</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,57 +775,63 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>400</v>
+      </c>
+      <c r="W8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -825,21 +839,21 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
@@ -859,24 +873,30 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -884,50 +904,56 @@
       <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1076,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1090,8 +1130,8 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1108,11 +1148,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1120,14 +1160,20 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,11 +1204,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1176,8 +1222,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1800</v>
       </c>
       <c r="P17" s="3">
         <v>1000</v>
       </c>
       <c r="Q17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1700</v>
       </c>
       <c r="P18" s="3">
         <v>-900</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,29 +1412,31 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1405,16 +1473,22 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
@@ -1455,17 +1529,23 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-100</v>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,38 +1561,38 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1523,67 +1603,79 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1888,20 +2010,20 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,28 +2188,34 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2113,67 +2253,79 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>39782</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>39691</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2572,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2409,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2427,40 +2601,46 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2530,19 +2716,19 @@
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2556,29 +2742,35 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
-        <v>100</v>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2628,16 +2820,22 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2657,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2674,8 +2872,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2683,79 +2881,91 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>400</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2768,17 +2978,17 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2807,14 +3017,20 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2864,16 +3080,22 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
       </c>
       <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>400</v>
+      </c>
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,78 +3532,86 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
+      <c r="L57" s="3">
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>600</v>
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -3352,57 +3620,63 @@
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3411,19 +3685,19 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
@@ -3431,97 +3705,109 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3544,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3556,33 +3842,39 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>2000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -3605,11 +3897,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,46 +4113,52 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -3850,20 +4166,26 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-31800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-31900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-31800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-31600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-31400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-30600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-29200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-27700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-26100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-25700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-7000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,19 +4723,25 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-400</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
@@ -4378,46 +4750,52 @@
         <v>-400</v>
       </c>
       <c r="I76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>39782</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>39691</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4678,10 +5076,16 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5275,17 +5735,17 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5293,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,16 +6168,22 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5694,31 +6198,31 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -5727,6 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>WDLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>39782</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>39691</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,25 +785,25 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
@@ -808,13 +812,13 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>400</v>
@@ -822,28 +826,31 @@
       <c r="W8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -852,11 +859,11 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
@@ -879,57 +886,60 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>300</v>
       </c>
       <c r="W9" s="3">
+        <v>300</v>
+      </c>
+      <c r="X9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -938,10 +948,10 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
@@ -950,10 +960,13 @@
         <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,25 +1136,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1154,8 +1174,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1228,17 +1251,20 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1500</v>
       </c>
       <c r="M17" s="3">
         <v>1500</v>
       </c>
       <c r="N17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O17" s="3">
         <v>4900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>600</v>
       </c>
       <c r="W17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,20 +1460,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1479,19 +1513,22 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -1535,8 +1572,8 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
-        <v>-100</v>
+      <c r="U21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,23 +1607,23 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1591,11 +1631,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-200</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-200</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-200</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2010,8 +2071,8 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2019,14 +2080,14 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-200</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-200</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>39782</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>39691</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2607,40 +2694,43 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2722,7 +2815,7 @@
         <v>400</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -2731,7 +2824,7 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2748,29 +2841,32 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2826,16 +2922,19 @@
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2861,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2878,29 +2977,32 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2908,10 +3010,10 @@
         <v>500</v>
       </c>
       <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
@@ -2920,13 +3022,13 @@
         <v>400</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -2935,42 +3037,45 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2978,8 +3083,8 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2990,8 +3095,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3023,14 +3128,17 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
+      <c r="V47" s="3">
+        <v>0</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3086,16 +3194,19 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3428,10 +3554,10 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
@@ -3440,13 +3566,13 @@
         <v>400</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
@@ -3455,37 +3581,40 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
+        <v>100</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3546,43 +3677,43 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3591,54 +3722,57 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3646,8 +3780,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3656,16 +3790,19 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>500</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3675,11 +3812,11 @@
       <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -3691,7 +3828,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3699,8 +3836,8 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
@@ -3711,8 +3848,8 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3721,16 +3858,19 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3741,29 +3881,29 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
         <v>200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
@@ -3773,11 +3913,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R60" s="3">
-        <v>0</v>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
@@ -3786,16 +3926,19 @@
         <v>0</v>
       </c>
       <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3806,11 +3949,11 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3836,31 +3979,34 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>2000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3873,11 +4019,11 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -3903,8 +4049,8 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4131,29 +4289,29 @@
         <v>400</v>
       </c>
       <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
       </c>
       <c r="I66" s="3">
+        <v>800</v>
+      </c>
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
@@ -4161,31 +4319,34 @@
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3">
-        <v>100</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
         <v>3100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-31900</v>
       </c>
       <c r="H72" s="3">
         <v>-31900</v>
       </c>
       <c r="I72" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-31800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-27700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-26100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-23100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>-7000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4738,64 +4924,67 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
+        <v>100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
       <c r="N76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O76" s="3">
         <v>200</v>
       </c>
       <c r="P76" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3">
-        <v>100</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
+        <v>100</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
         <v>-2700</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>39782</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>39691</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-200</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5082,10 +5281,13 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5741,14 +5971,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,64 +6299,67 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,19 +6423,22 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -6204,28 +6456,28 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>WDLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,116 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>39782</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>39691</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -788,88 +795,94 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
@@ -889,84 +902,96 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
+      <c r="F10" s="3">
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3">
         <v>100</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,67 +1175,73 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,11 +1281,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1254,8 +1299,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>3400</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1800</v>
       </c>
       <c r="S17" s="3">
         <v>1000</v>
       </c>
       <c r="T17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1700</v>
       </c>
       <c r="S18" s="3">
         <v>-900</v>
       </c>
       <c r="T18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,38 +1513,40 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1516,25 +1583,31 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
+      <c r="H21" s="3">
+        <v>-1800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1575,25 +1648,31 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-100</v>
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1610,38 +1689,38 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1652,76 +1731,88 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="I23" s="3">
+        <v>200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-4600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2074,17 +2195,17 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2092,8 +2213,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,37 +2397,43 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2332,76 +2471,88 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>39782</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>39691</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2832,10 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2673,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2697,40 +2870,46 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2976,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2818,19 +3003,19 @@
         <v>400</v>
       </c>
       <c r="I43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2844,29 +3029,35 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V43" s="3">
-        <v>100</v>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2925,24 +3116,30 @@
         <v>0</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2963,13 +3160,13 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2980,8 +3177,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2989,108 +3186,120 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
       </c>
       <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
+        <v>400</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3098,11 +3307,11 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3131,14 +3340,20 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3197,16 +3412,22 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
+        <v>400</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3924,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3680,81 +3941,87 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
+      <c r="O57" s="3">
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3">
-        <v>500</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -3763,46 +4030,52 @@
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>500</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3815,14 +4088,14 @@
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3831,19 +4104,19 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
@@ -3851,26 +4124,32 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3884,82 +4163,88 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
+      <c r="R60" s="3">
+        <v>0</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
+      <c r="T60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U60" s="3">
         <v>0</v>
       </c>
       <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
       </c>
       <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3982,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3994,19 +4279,25 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>2000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4022,14 +4313,14 @@
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -4052,11 +4343,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,55 +4586,61 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
       </c>
       <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
@@ -4333,20 +4648,26 @@
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X66" s="3">
         <v>3100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-31600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-31400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-31800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-31900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-31900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-31800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-31600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-31400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-30600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-29200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-27700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-25700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-23100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X72" s="3">
         <v>-7000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,28 +5280,34 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
         <v>-200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -4945,46 +5316,52 @@
         <v>-400</v>
       </c>
       <c r="L76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
-        <v>100</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X76" s="3">
         <v>-2700</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>39782</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>39691</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5284,10 +5681,16 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6053,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,67 +6068,73 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5974,17 +6433,17 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -5992,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6775,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,67 +6790,73 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,25 +6923,31 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -6459,31 +6962,31 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -6492,6 +6995,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>WDLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>39782</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>39691</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -801,25 +805,25 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
@@ -828,13 +832,13 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
         <v>400</v>
@@ -842,16 +846,19 @@
       <c r="Z8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -859,20 +866,20 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -881,11 +888,11 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
@@ -908,24 +915,27 @@
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>300</v>
       </c>
       <c r="Z9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -933,41 +943,41 @@
       <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
@@ -976,10 +986,10 @@
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
@@ -988,10 +998,13 @@
         <v>100</v>
       </c>
       <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,34 +1195,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1222,8 +1242,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1234,14 +1254,17 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-100</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1310,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1305,17 +1328,20 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1500</v>
       </c>
       <c r="P17" s="3">
         <v>1500</v>
       </c>
       <c r="Q17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R17" s="3">
         <v>4900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
       <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>600</v>
       </c>
       <c r="Z17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,41 +1548,42 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1600,18 +1637,18 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1654,8 +1691,8 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X21" s="3">
-        <v>-100</v>
+      <c r="X21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y21" s="3">
         <v>-100</v>
@@ -1663,8 +1700,11 @@
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1674,8 +1714,8 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1695,23 +1735,23 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1719,11 +1759,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-200</v>
       </c>
       <c r="Z23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-200</v>
       </c>
       <c r="Z26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-200</v>
       </c>
       <c r="Z27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2204,20 +2265,20 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,40 +2470,43 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-200</v>
       </c>
       <c r="Z33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-200</v>
       </c>
       <c r="Z35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>39782</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>39691</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2852,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2876,40 +2963,43 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3009,7 +3102,7 @@
         <v>400</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
@@ -3018,7 +3111,7 @@
         <v>300</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3035,29 +3128,32 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>100</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3122,16 +3218,19 @@
         <v>0</v>
       </c>
       <c r="X44" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>100</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3141,8 +3240,8 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3166,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3183,29 +3282,32 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>8</v>
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3216,16 +3318,16 @@
         <v>400</v>
       </c>
       <c r="F46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>500</v>
       </c>
       <c r="H46" s="3">
+        <v>500</v>
+      </c>
+      <c r="I46" s="3">
         <v>600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
@@ -3234,13 +3336,13 @@
         <v>400</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -3249,37 +3351,40 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3292,8 +3397,8 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3301,8 +3406,8 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -3313,8 +3418,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3346,14 +3451,17 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
+      <c r="Y47" s="3">
+        <v>0</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3418,16 +3526,19 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>100</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3808,16 +3934,16 @@
         <v>400</v>
       </c>
       <c r="F54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>500</v>
       </c>
       <c r="H54" s="3">
+        <v>500</v>
+      </c>
+      <c r="I54" s="3">
         <v>600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
@@ -3826,13 +3952,13 @@
         <v>400</v>
       </c>
       <c r="L54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
@@ -3841,37 +3967,40 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3947,43 +4078,43 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -3992,63 +4123,66 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -4056,8 +4190,8 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4066,16 +4200,19 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>500</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4094,11 +4231,11 @@
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -4110,7 +4247,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4118,8 +4255,8 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
@@ -4130,8 +4267,8 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4140,16 +4277,19 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4169,29 +4309,29 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
       </c>
       <c r="L60" s="3">
+        <v>800</v>
+      </c>
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
@@ -4201,11 +4341,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3">
-        <v>0</v>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V60" s="3">
         <v>0</v>
@@ -4214,16 +4354,19 @@
         <v>0</v>
       </c>
       <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4234,7 +4377,7 @@
         <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
@@ -4243,11 +4386,11 @@
         <v>300</v>
       </c>
       <c r="I61" s="3">
+        <v>300</v>
+      </c>
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4273,31 +4416,34 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>2000</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4319,11 +4465,11 @@
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -4349,8 +4495,8 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4604,7 +4762,7 @@
         <v>500</v>
       </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -4613,29 +4771,29 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
       </c>
       <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
       <c r="Q66" s="3">
         <v>0</v>
       </c>
@@ -4643,31 +4801,34 @@
         <v>0</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3">
-        <v>100</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
+        <v>100</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y66" s="3">
         <v>3100</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-31900</v>
       </c>
       <c r="K72" s="3">
         <v>-31900</v>
       </c>
       <c r="L72" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="M72" s="3">
         <v>-31800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-26100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-25700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>-23100</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
       <c r="Q76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R76" s="3">
         <v>200</v>
       </c>
       <c r="S76" s="3">
+        <v>200</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3">
-        <v>100</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
+        <v>100</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>39782</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>39691</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-200</v>
       </c>
       <c r="Z81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5687,10 +5886,13 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6068,73 +6285,76 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6439,14 +6669,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6790,73 +7036,76 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3000</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,13 +7178,16 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6944,13 +7196,13 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -6968,28 +7220,28 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>WDLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>39782</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>39691</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -808,25 +812,25 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
@@ -835,13 +839,13 @@
         <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="3">
         <v>400</v>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -860,8 +867,8 @@
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -869,20 +876,20 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -891,11 +898,11 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
@@ -918,16 +925,19 @@
         <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
         <v>300</v>
       </c>
       <c r="AA9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -937,8 +947,8 @@
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -946,41 +956,41 @@
       <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
@@ -989,10 +999,10 @@
         <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
         <v>100</v>
@@ -1001,10 +1011,13 @@
         <v>100</v>
       </c>
       <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,34 +1218,34 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>3300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1245,8 +1265,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-100</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1336,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1331,17 +1354,20 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1378,150 +1405,156 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1500</v>
       </c>
       <c r="Q17" s="3">
         <v>1500</v>
       </c>
       <c r="R17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S17" s="3">
         <v>4900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
       <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>400</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>600</v>
       </c>
       <c r="AA17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
       <c r="Z18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,32 +1595,32 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,18 +1677,18 @@
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1694,8 +1731,8 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1717,8 +1757,8 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1738,23 +1778,23 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1762,11 +1802,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1200</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-200</v>
       </c>
       <c r="AA23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1200</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-200</v>
       </c>
       <c r="AA26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1200</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-200</v>
       </c>
       <c r="AA27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2268,20 +2329,20 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,31 +2555,31 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-200</v>
       </c>
       <c r="AA33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-200</v>
       </c>
       <c r="AA35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>39782</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>39691</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,13 +3007,14 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2942,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2966,40 +3053,43 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
+        <v>100</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,13 +3165,16 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
@@ -3105,7 +3198,7 @@
         <v>400</v>
       </c>
       <c r="L43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
@@ -3114,7 +3207,7 @@
         <v>300</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3131,29 +3224,32 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3">
+        <v>100</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3221,16 +3317,19 @@
         <v>0</v>
       </c>
       <c r="Y44" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z44" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>100</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3243,8 +3342,8 @@
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3268,10 +3367,10 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3285,34 +3384,37 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
@@ -3321,16 +3423,16 @@
         <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>500</v>
       </c>
       <c r="I46" s="3">
+        <v>500</v>
+      </c>
+      <c r="J46" s="3">
         <v>600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
@@ -3339,13 +3441,13 @@
         <v>400</v>
       </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
@@ -3354,37 +3456,40 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3400,8 +3505,8 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -3409,8 +3514,8 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -3421,8 +3526,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3454,14 +3559,17 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
+      <c r="Z47" s="3">
+        <v>0</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3529,16 +3637,19 @@
         <v>0</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>100</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,13 +4045,16 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
@@ -3937,16 +4063,16 @@
         <v>400</v>
       </c>
       <c r="G54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>500</v>
       </c>
       <c r="I54" s="3">
+        <v>500</v>
+      </c>
+      <c r="J54" s="3">
         <v>600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
@@ -3955,13 +4081,13 @@
         <v>400</v>
       </c>
       <c r="M54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
@@ -3970,37 +4096,40 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3">
+        <v>100</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3">
         <v>400</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4081,43 +4212,43 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V57" s="3">
-        <v>0</v>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -4126,66 +4257,69 @@
         <v>0</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -4193,8 +4327,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4203,42 +4337,45 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>500</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -4250,7 +4387,7 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4258,8 +4395,8 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
@@ -4270,8 +4407,8 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4280,16 +4417,19 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4312,29 +4452,29 @@
         <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
       </c>
       <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
@@ -4344,11 +4484,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V60" s="3">
-        <v>0</v>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
@@ -4357,16 +4497,19 @@
         <v>0</v>
       </c>
       <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1100</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4380,7 +4523,7 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -4389,11 +4532,11 @@
         <v>300</v>
       </c>
       <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4419,60 +4562,63 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>2000</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -4498,8 +4644,8 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4765,7 +4923,7 @@
         <v>500</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -4774,29 +4932,29 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
       </c>
       <c r="M66" s="3">
+        <v>800</v>
+      </c>
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
       <c r="R66" s="3">
         <v>0</v>
       </c>
@@ -4804,31 +4962,34 @@
         <v>0</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V66" s="3">
-        <v>100</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3">
+        <v>100</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3">
         <v>3100</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-31900</v>
       </c>
       <c r="L72" s="3">
         <v>-31900</v>
       </c>
       <c r="M72" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="N72" s="3">
         <v>-31800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-26100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-25700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3">
         <v>-23100</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
       <c r="R76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S76" s="3">
         <v>200</v>
       </c>
       <c r="T76" s="3">
+        <v>200</v>
+      </c>
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V76" s="3">
-        <v>100</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
+        <v>100</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>39782</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>39691</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-200</v>
       </c>
       <c r="AA81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5889,10 +6088,13 @@
         <v>0</v>
       </c>
       <c r="AA83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6672,14 +6902,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7039,73 +7285,76 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3000</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,13 +7430,16 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -7199,13 +7451,13 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -7223,28 +7475,28 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>WDLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,143 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>39782</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>39691</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -815,100 +822,106 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
       <c r="Z8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AB8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>8</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>8</v>
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
@@ -928,96 +941,108 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
         <v>300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
+      <c r="J10" s="3">
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>8</v>
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
         <v>100</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="3">
         <v>100</v>
       </c>
       <c r="Z10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="3">
         <v>100</v>
       </c>
       <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,13 +1239,19 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1221,37 +1260,37 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1268,11 +1307,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1280,14 +1319,20 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-100</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1339,11 +1384,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1357,8 +1402,8 @@
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>8</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,13 +1444,15 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1408,153 +1461,165 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1800</v>
       </c>
       <c r="W17" s="3">
         <v>1000</v>
       </c>
       <c r="X17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-1700</v>
       </c>
       <c r="W18" s="3">
         <v>-900</v>
       </c>
       <c r="X18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,41 +1659,41 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1663,13 +1730,19 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1680,21 +1753,21 @@
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1734,17 +1807,23 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-100</v>
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1760,11 +1839,11 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1781,38 +1860,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-4600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-4600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,13 +2418,19 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2332,14 +2453,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2347,8 +2468,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,40 +2691,40 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2623,88 +2762,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-4600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-4600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>39782</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>39691</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,20 +3179,22 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -3032,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -3056,40 +3229,46 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>0</v>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3099,20 +3278,20 @@
       <c r="E42" s="3">
         <v>0</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3177,10 +3362,10 @@
         <v>500</v>
       </c>
       <c r="E43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
@@ -3201,19 +3386,19 @@
         <v>400</v>
       </c>
       <c r="M43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3227,29 +3412,35 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
+      <c r="V43" s="3">
+        <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>100</v>
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3320,16 +3511,22 @@
         <v>0</v>
       </c>
       <c r="Z44" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3345,11 +3542,11 @@
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3370,13 +3567,13 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3387,8 +3584,8 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3396,117 +3593,129 @@
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
+        <v>400</v>
+      </c>
+      <c r="O46" s="3">
+        <v>400</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -3517,11 +3726,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -3529,11 +3738,11 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3562,14 +3771,20 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3640,16 +3855,22 @@
         <v>0</v>
       </c>
       <c r="Z48" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
         <v>900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
       <c r="H54" s="3">
+        <v>400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>400</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
       </c>
       <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,16 +4447,18 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -4215,93 +4476,99 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
+      <c r="S57" s="3">
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
+      <c r="X57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3">
-        <v>500</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
@@ -4310,46 +4577,52 @@
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>500</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4378,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -4390,19 +4663,19 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
@@ -4410,34 +4683,40 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
       <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
@@ -4455,69 +4734,75 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
       <c r="T60" s="3">
         <v>0</v>
       </c>
       <c r="U60" s="3">
         <v>0</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
+      <c r="V60" s="3">
+        <v>0</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
       </c>
-      <c r="X60" s="3">
-        <v>0</v>
+      <c r="X60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y60" s="3">
         <v>0</v>
       </c>
       <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1100</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
@@ -4526,23 +4811,23 @@
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
       </c>
       <c r="K61" s="3">
+        <v>300</v>
+      </c>
+      <c r="L61" s="3">
+        <v>300</v>
+      </c>
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4565,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -4577,45 +4862,51 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>2000</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4623,8 +4914,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -4647,11 +4938,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,16 +5217,22 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
@@ -4926,49 +5241,49 @@
         <v>500</v>
       </c>
       <c r="H66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
       <c r="T66" s="3">
         <v>0</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
       </c>
       <c r="W66" s="3">
         <v>100</v>
@@ -4976,20 +5291,26 @@
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB66" s="3">
         <v>3100</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-33000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-33500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-33600</v>
       </c>
       <c r="G72" s="3">
         <v>-33500</v>
       </c>
       <c r="H72" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-31600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-31500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-31400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-31800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-31900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-31900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-31800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-31600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-30600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-29200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-27700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-26100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-25700</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-23100</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-7000</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,40 +6023,46 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>600</v>
+      </c>
+      <c r="F76" s="3">
         <v>400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>-200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
@@ -5700,46 +6071,52 @@
         <v>-400</v>
       </c>
       <c r="P76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
-        <v>100</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W76" s="3">
-        <v>100</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Y76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>39782</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>39691</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-4600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6091,10 +6488,16 @@
         <v>0</v>
       </c>
       <c r="AB83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-4500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6905,17 +7364,17 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>4600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>3000</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,20 +7930,26 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -7454,16 +7957,16 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -7478,31 +7981,31 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>WDLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,150 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>39782</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>39691</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -828,25 +832,25 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>200</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
@@ -855,13 +859,13 @@
         <v>100</v>
       </c>
       <c r="Z8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AC8" s="3">
         <v>400</v>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -880,8 +887,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>8</v>
@@ -889,8 +896,8 @@
       <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -898,20 +905,20 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -920,11 +927,11 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
@@ -947,36 +954,39 @@
         <v>0</v>
       </c>
       <c r="AB9" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>300</v>
       </c>
       <c r="AD9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -984,41 +994,41 @@
       <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="3">
-        <v>100</v>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>200</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
@@ -1027,10 +1037,10 @@
         <v>100</v>
       </c>
       <c r="Z10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="3">
         <v>100</v>
@@ -1039,10 +1049,13 @@
         <v>100</v>
       </c>
       <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,16 +1262,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1266,34 +1286,34 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1313,8 +1333,8 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1325,14 +1345,17 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-100</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,8 +1413,8 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
@@ -1408,17 +1431,20 @@
       <c r="AA15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1455,7 +1482,7 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1467,159 +1494,165 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1500</v>
       </c>
       <c r="T17" s="3">
         <v>1500</v>
       </c>
       <c r="U17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V17" s="3">
         <v>4900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
-        <v>100</v>
-      </c>
       <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="3">
         <v>400</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>600</v>
       </c>
       <c r="AD17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
       <c r="AC18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1671,32 +1705,32 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1736,17 +1770,20 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1759,18 +1796,18 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1813,8 +1850,8 @@
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB21" s="3">
-        <v>-100</v>
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC21" s="3">
         <v>-100</v>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1845,8 +1885,8 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1866,23 +1906,23 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1890,11 +1930,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>-200</v>
       </c>
       <c r="AD23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>-200</v>
       </c>
       <c r="AD26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-200</v>
       </c>
       <c r="AD27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,16 +2482,19 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2459,20 +2520,20 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,11 +2761,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2703,31 +2773,31 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-200</v>
       </c>
       <c r="AD33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-200</v>
       </c>
       <c r="AD35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>39782</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>39691</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,23 +3267,24 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -3211,10 +3298,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -3235,40 +3322,43 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="3" t="s">
-        <v>8</v>
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
       </c>
       <c r="AD41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3278,8 +3368,8 @@
       <c r="E42" s="3">
         <v>0</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -3293,8 +3383,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3353,22 +3443,25 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
@@ -3392,7 +3485,7 @@
         <v>400</v>
       </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
@@ -3401,7 +3494,7 @@
         <v>300</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3418,29 +3511,32 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB43" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC43" s="3" t="s">
-        <v>8</v>
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>100</v>
       </c>
       <c r="AD43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3517,16 +3613,19 @@
         <v>0</v>
       </c>
       <c r="AB44" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC44" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>100</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3548,8 +3647,8 @@
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3573,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3590,43 +3689,46 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="3" t="s">
-        <v>8</v>
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
       </c>
       <c r="AD45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
@@ -3635,16 +3737,16 @@
         <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>500</v>
       </c>
       <c r="L46" s="3">
+        <v>500</v>
+      </c>
+      <c r="M46" s="3">
         <v>600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
@@ -3653,13 +3755,13 @@
         <v>400</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
@@ -3668,37 +3770,40 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3732,8 +3837,8 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3744,8 +3849,8 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3777,14 +3882,17 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>8</v>
+      <c r="AC47" s="3">
+        <v>0</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3861,16 +3969,19 @@
         <v>0</v>
       </c>
       <c r="AB48" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC48" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>100</v>
       </c>
       <c r="AD48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,22 +4422,25 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>400</v>
@@ -4323,16 +4449,16 @@
         <v>400</v>
       </c>
       <c r="J54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>500</v>
       </c>
       <c r="L54" s="3">
+        <v>500</v>
+      </c>
+      <c r="M54" s="3">
         <v>600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
@@ -4341,13 +4467,13 @@
         <v>400</v>
       </c>
       <c r="P54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>300</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
@@ -4356,37 +4482,40 @@
         <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
       </c>
       <c r="W54" s="3">
-        <v>0</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>100</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC54" s="3">
         <v>400</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4461,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -4482,43 +4613,43 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>0</v>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
@@ -4527,75 +4658,78 @@
         <v>0</v>
       </c>
       <c r="AB57" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC57" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>100</v>
       </c>
       <c r="AD57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4603,8 +4737,8 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4613,16 +4747,19 @@
         <v>0</v>
       </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>500</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4657,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -4669,7 +4806,7 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4677,8 +4814,8 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
@@ -4689,8 +4826,8 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4699,16 +4836,19 @@
         <v>0</v>
       </c>
       <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
         <v>400</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4719,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -4740,29 +4880,29 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>800</v>
       </c>
       <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
       <c r="U60" s="3">
         <v>0</v>
       </c>
@@ -4772,11 +4912,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>0</v>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z60" s="3">
         <v>0</v>
@@ -4785,16 +4925,19 @@
         <v>0</v>
       </c>
       <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1100</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4802,10 +4945,10 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
@@ -4817,7 +4960,7 @@
         <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
@@ -4826,11 +4969,11 @@
         <v>300</v>
       </c>
       <c r="M61" s="3">
+        <v>300</v>
+      </c>
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4856,39 +4999,42 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>2000</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
@@ -4905,20 +5051,20 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -4944,8 +5090,8 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5232,10 +5390,10 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
@@ -5247,7 +5405,7 @@
         <v>500</v>
       </c>
       <c r="J66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -5256,29 +5414,29 @@
         <v>400</v>
       </c>
       <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
         <v>600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>800</v>
       </c>
       <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
       <c r="U66" s="3">
         <v>0</v>
       </c>
@@ -5286,31 +5444,34 @@
         <v>0</v>
       </c>
       <c r="W66" s="3">
-        <v>100</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>100</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC66" s="3">
         <v>3100</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-32800</v>
+        <v>-32900</v>
       </c>
       <c r="E72" s="3">
         <v>-32800</v>
       </c>
       <c r="F72" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-33000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-31900</v>
       </c>
       <c r="O72" s="3">
         <v>-31900</v>
       </c>
       <c r="P72" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-27700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-26100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-25700</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-23100</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-7000</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6038,85 +6224,88 @@
         <v>500</v>
       </c>
       <c r="E76" s="3">
+        <v>500</v>
+      </c>
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
       <c r="L76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
-        <v>100</v>
-      </c>
       <c r="U76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V76" s="3">
         <v>200</v>
       </c>
       <c r="W76" s="3">
+        <v>200</v>
+      </c>
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>100</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>39782</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>39691</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-200</v>
       </c>
       <c r="AD81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6494,10 +6693,13 @@
         <v>0</v>
       </c>
       <c r="AD83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
       <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7370,14 +7600,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>8</v>
+      <c r="Y94" s="3">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
+      <c r="AA94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,20 +8007,23 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -7785,73 +8031,76 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3000</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1100</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,23 +8185,26 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -7963,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7987,28 +8239,28 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
         <v>0</v>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
